--- a/refs/Lit_Review.xlsx
+++ b/refs/Lit_Review.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/springfreeze/refs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10240" yWindow="0" windowWidth="24960" windowHeight="14020" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="12980" yWindow="1360" windowWidth="24960" windowHeight="14020" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -17,18 +22,18 @@
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="191">
   <si>
     <t>Metadata by Cat:</t>
   </si>
@@ -177,9 +182,6 @@
     <t>As above but for flowering</t>
   </si>
   <si>
-    <t>resp_reproduction</t>
-  </si>
-  <si>
     <t>As above but for reproduction</t>
   </si>
   <si>
@@ -279,12 +281,6 @@
     <t>Sorbus aucuparia, S. aria, Acer psudoplatanus, Laburnum alpinum, Prunus avium, Fagus sylvatica, Fraxinus excelsior</t>
   </si>
   <si>
-    <t>min_temp ©</t>
-  </si>
-  <si>
-    <t>max_temp ©</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -607,6 +603,9 @@
   </si>
   <si>
     <t>Review - good definitions and references</t>
+  </si>
+  <si>
+    <t>resp_fruit</t>
   </si>
 </sst>
 </file>
@@ -990,7 +989,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1000,31 +999,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19">
+    <row r="1" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -1036,7 +1035,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
@@ -1045,7 +1044,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
@@ -1057,7 +1056,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="9" spans="1:9" ht="19">
+    <row r="9" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1069,7 +1068,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="19">
+    <row r="10" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -1083,7 +1082,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:9" ht="19">
+    <row r="11" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1097,7 +1096,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:9" ht="19">
+    <row r="12" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -1111,7 +1110,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:9" ht="17">
+    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1121,7 +1120,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:9" ht="19">
+    <row r="14" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1133,7 +1132,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:9" ht="19">
+    <row r="15" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
@@ -1147,7 +1146,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="19">
+    <row r="16" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
@@ -1161,7 +1160,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="19">
+    <row r="17" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
@@ -1175,7 +1174,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="19">
+    <row r="18" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
@@ -1189,7 +1188,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="19">
+    <row r="19" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
@@ -1203,12 +1202,12 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="19">
+    <row r="20" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1217,7 +1216,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="17">
+    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1227,7 +1226,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" ht="19">
+    <row r="22" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
@@ -1239,12 +1238,12 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" ht="19">
+    <row r="23" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1253,7 +1252,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" ht="19">
+    <row r="24" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>26</v>
       </c>
@@ -1267,7 +1266,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" ht="19">
+    <row r="25" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>28</v>
       </c>
@@ -1279,7 +1278,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" ht="19">
+    <row r="26" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>29</v>
       </c>
@@ -1291,7 +1290,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" ht="19">
+    <row r="27" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>30</v>
       </c>
@@ -1303,7 +1302,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" ht="19">
+    <row r="28" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
@@ -1315,7 +1314,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" ht="19">
+    <row r="29" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>32</v>
       </c>
@@ -1327,7 +1326,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" ht="19">
+    <row r="30" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>33</v>
       </c>
@@ -1335,7 +1334,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="19">
+    <row r="31" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>34</v>
       </c>
@@ -1343,39 +1342,39 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="19">
+    <row r="32" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
         <v>64</v>
       </c>
-      <c r="B32" t="s">
+    </row>
+    <row r="33" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="19">
-      <c r="A33" s="4" t="s">
+      <c r="B33" t="s">
         <v>66</v>
       </c>
-      <c r="B33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="19">
+    </row>
+    <row r="34" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
         <v>69</v>
       </c>
-      <c r="B34" t="s">
+    </row>
+    <row r="35" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="19">
-      <c r="A35" s="4" t="s">
+      <c r="B35" t="s">
         <v>71</v>
       </c>
-      <c r="B35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="19">
+    </row>
+    <row r="36" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>35</v>
       </c>
@@ -1383,7 +1382,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="19">
+    <row r="37" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>36</v>
       </c>
@@ -1391,15 +1390,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="19">
+    <row r="38" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" t="s">
         <v>53</v>
       </c>
-      <c r="B38" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="19">
+    </row>
+    <row r="39" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>41</v>
       </c>
@@ -1407,7 +1406,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="19">
+    <row r="40" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>43</v>
       </c>
@@ -1415,7 +1414,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="19">
+    <row r="41" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>45</v>
       </c>
@@ -1423,7 +1422,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="19">
+    <row r="42" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>47</v>
       </c>
@@ -1431,41 +1430,41 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="19">
+    <row r="43" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B43" t="s">
         <v>49</v>
       </c>
-      <c r="B43" t="s">
+    </row>
+    <row r="44" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" ht="19">
-      <c r="A44" s="4" t="s">
+      <c r="B44" t="s">
         <v>51</v>
       </c>
-      <c r="B44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="19">
+    </row>
+    <row r="45" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" t="s">
         <v>55</v>
       </c>
-      <c r="B45" t="s">
+    </row>
+    <row r="46" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="19">
-      <c r="A46" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="19">
-      <c r="A48" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1476,9 +1475,9 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
     </row>
-    <row r="49" spans="1:9" ht="19">
+    <row r="49" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1489,10 +1488,10 @@
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
     </row>
-    <row r="50" spans="1:9" ht="19">
+    <row r="50" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -1502,10 +1501,10 @@
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
     </row>
-    <row r="51" spans="1:9" ht="19">
+    <row r="51" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -1515,10 +1514,10 @@
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
     </row>
-    <row r="52" spans="1:9" ht="19">
+    <row r="52" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -1528,9 +1527,9 @@
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="1:9" ht="19">
+    <row r="53" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1541,9 +1540,9 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="1:9" ht="19">
+    <row r="54" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1561,11 +1560,6 @@
     <mergeCell ref="B7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1577,14 +1571,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" customWidth="1"/>
     <col min="4" max="4" width="69.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19">
+    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
@@ -1604,154 +1598,149 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
         <v>92</v>
-      </c>
-      <c r="B2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" t="s">
-        <v>95</v>
       </c>
       <c r="E2">
         <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
         <v>94</v>
-      </c>
-      <c r="D3" t="s">
-        <v>97</v>
       </c>
       <c r="E3">
         <v>376</v>
       </c>
       <c r="F3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E4">
         <v>297</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E5">
         <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E6">
         <v>41</v>
       </c>
       <c r="F6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" t="s">
-        <v>107</v>
       </c>
       <c r="E7">
         <v>126</v>
       </c>
       <c r="F7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E8">
         <v>725</v>
       </c>
       <c r="F8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1760,13 +1749,13 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W7" sqref="W7"/>
+      <selection pane="bottomRight" activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -1782,9 +1771,9 @@
     <col min="22" max="22" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="19">
+    <row r="1" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>26</v>
@@ -1811,16 +1800,16 @@
         <v>34</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>35</v>
@@ -1829,7 +1818,7 @@
         <v>36</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>41</v>
@@ -1844,254 +1833,254 @@
         <v>47</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>49</v>
+        <v>190</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C2">
         <v>2015</v>
       </c>
       <c r="D2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" t="s">
         <v>163</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>164</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="W2" t="s">
         <v>165</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>166</v>
       </c>
-      <c r="H2" t="s">
+      <c r="B3" t="s">
         <v>167</v>
-      </c>
-      <c r="W2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B3" t="s">
-        <v>170</v>
       </c>
       <c r="C3">
         <v>2012</v>
       </c>
       <c r="D3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G3" t="s">
         <v>171</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>172</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="I3" t="s">
         <v>173</v>
       </c>
-      <c r="G3" t="s">
+      <c r="W3" t="s">
         <v>174</v>
       </c>
-      <c r="H3" t="s">
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" t="s">
         <v>175</v>
-      </c>
-      <c r="I3" t="s">
-        <v>176</v>
-      </c>
-      <c r="W3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B4" t="s">
-        <v>178</v>
       </c>
       <c r="C4">
         <v>2009</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G4" t="s">
+        <v>183</v>
+      </c>
+      <c r="W4" t="s">
         <v>184</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G4" t="s">
-        <v>186</v>
-      </c>
-      <c r="W4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C5">
         <v>2013</v>
       </c>
       <c r="D5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H5" t="s">
         <v>179</v>
       </c>
-      <c r="E5" t="s">
+      <c r="W5" t="s">
         <v>180</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="H5" t="s">
-        <v>182</v>
-      </c>
-      <c r="W5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C6">
         <v>2013</v>
       </c>
       <c r="D6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="W6" t="s">
         <v>189</v>
       </c>
-      <c r="E6" t="s">
-        <v>190</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="W6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C11">
         <v>2008</v>
       </c>
       <c r="D11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G11" t="s">
         <v>151</v>
       </c>
-      <c r="E11" t="s">
+      <c r="W11" t="s">
         <v>152</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G11" t="s">
-        <v>154</v>
-      </c>
-      <c r="W11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" t="s">
         <v>75</v>
-      </c>
-      <c r="B18" t="s">
-        <v>76</v>
       </c>
       <c r="C18">
         <v>2013</v>
       </c>
       <c r="D18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" t="s">
         <v>77</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" t="s">
         <v>79</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>80</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>81</v>
-      </c>
-      <c r="I18" t="s">
-        <v>82</v>
       </c>
       <c r="J18">
         <v>-35</v>
@@ -2100,176 +2089,176 @@
         <v>4</v>
       </c>
       <c r="L18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M18" t="s">
+        <v>82</v>
+      </c>
+      <c r="N18" t="s">
+        <v>83</v>
+      </c>
+      <c r="O18" t="s">
+        <v>84</v>
+      </c>
+      <c r="P18" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>110</v>
+      </c>
+      <c r="R18" t="s">
+        <v>84</v>
+      </c>
+      <c r="S18" t="s">
         <v>85</v>
       </c>
-      <c r="N18" t="s">
+      <c r="T18" t="s">
+        <v>82</v>
+      </c>
+      <c r="U18" t="s">
+        <v>82</v>
+      </c>
+      <c r="V18" t="s">
+        <v>82</v>
+      </c>
+      <c r="W18" t="s">
         <v>86</v>
       </c>
-      <c r="O18" t="s">
-        <v>87</v>
-      </c>
-      <c r="P18" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>113</v>
-      </c>
-      <c r="R18" t="s">
-        <v>87</v>
-      </c>
-      <c r="S18" t="s">
-        <v>88</v>
-      </c>
-      <c r="T18" t="s">
-        <v>85</v>
-      </c>
-      <c r="U18" t="s">
-        <v>85</v>
-      </c>
-      <c r="V18" t="s">
-        <v>85</v>
-      </c>
-      <c r="W18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23">
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19">
         <v>2016</v>
       </c>
       <c r="D19" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" t="s">
         <v>156</v>
       </c>
-      <c r="E19" t="s">
+      <c r="H19" t="s">
         <v>157</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="I19" t="s">
         <v>158</v>
       </c>
-      <c r="G19" t="s">
-        <v>159</v>
-      </c>
-      <c r="H19" t="s">
-        <v>160</v>
-      </c>
-      <c r="I19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23">
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
-      <c r="A21" t="s">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
-      <c r="A22" t="s">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
-      <c r="A23" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23">
-      <c r="A24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23">
-      <c r="A25" t="s">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
-      <c r="A26" t="s">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
-      <c r="A27" t="s">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
-      <c r="A28" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23">
-      <c r="A29" t="s">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
-      <c r="A30" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23">
-      <c r="A31" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23">
-      <c r="A32" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23">
-      <c r="A33" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23">
-      <c r="A34" t="s">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="35" spans="1:23">
-      <c r="A35" t="s">
-        <v>140</v>
-      </c>
       <c r="B35" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C35">
         <v>2016</v>
       </c>
       <c r="D35" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" t="s">
+        <v>140</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G35" t="s">
         <v>142</v>
       </c>
-      <c r="E35" t="s">
+      <c r="H35" t="s">
         <v>143</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="I35" t="s">
         <v>144</v>
       </c>
-      <c r="G35" t="s">
+      <c r="W35" t="s">
         <v>145</v>
-      </c>
-      <c r="H35" t="s">
-        <v>146</v>
-      </c>
-      <c r="I35" t="s">
-        <v>147</v>
-      </c>
-      <c r="W35" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2280,11 +2269,6 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2294,13 +2278,8 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>